--- a/sources/people.xlsx
+++ b/sources/people.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>周蛮荆</t>
   </si>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +522,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -531,8 +535,11 @@
       <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +552,11 @@
       <c r="D2" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,8 +569,11 @@
       <c r="D3" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,8 +586,11 @@
       <c r="D4" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -587,8 +603,11 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,8 +620,11 @@
       <c r="D6" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,8 +637,11 @@
       <c r="D7" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -629,8 +654,11 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -643,8 +671,11 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,8 +688,11 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -671,8 +705,11 @@
       <c r="D11" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,8 +722,11 @@
       <c r="D12" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,8 +739,11 @@
       <c r="D13" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -713,8 +756,11 @@
       <c r="D14" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -727,8 +773,11 @@
       <c r="D15" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,8 +790,11 @@
       <c r="D16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,8 +807,11 @@
       <c r="D17" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -769,8 +824,11 @@
       <c r="D18" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,8 +841,11 @@
       <c r="D19" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -797,8 +858,11 @@
       <c r="D20" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -811,8 +875,11 @@
       <c r="D21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,8 +892,11 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -839,8 +909,11 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -853,8 +926,11 @@
       <c r="D24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,8 +943,11 @@
       <c r="D25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -881,8 +960,11 @@
       <c r="D26" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -895,8 +977,11 @@
       <c r="D27" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -909,8 +994,11 @@
       <c r="D28" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -923,8 +1011,11 @@
       <c r="D29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -937,8 +1028,11 @@
       <c r="D30" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -951,8 +1045,11 @@
       <c r="D31" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -965,8 +1062,11 @@
       <c r="D32" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -979,8 +1079,11 @@
       <c r="D33" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -993,8 +1096,11 @@
       <c r="D34" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1004,8 +1110,11 @@
       <c r="D35" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1018,8 +1127,11 @@
       <c r="D36" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1032,8 +1144,11 @@
       <c r="D37" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1046,8 +1161,11 @@
       <c r="D38" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1060,8 +1178,11 @@
       <c r="D39" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1074,8 +1195,11 @@
       <c r="D40" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1087,6 +1211,9 @@
       </c>
       <c r="D41" s="1">
         <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
